--- a/ScikitApi.xlsx
+++ b/ScikitApi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A8113-AC0B-1C45-80C7-B5740998002A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42020" yWindow="5500" windowWidth="22260" windowHeight="12640" tabRatio="485" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="485" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preprocessing" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Pipeline" sheetId="3" r:id="rId3"/>
     <sheet name="model" sheetId="6" r:id="rId4"/>
     <sheet name="tips" sheetId="11" r:id="rId5"/>
-    <sheet name="hyperpara" sheetId="9" r:id="rId6"/>
+    <sheet name="hyperparameter" sheetId="9" r:id="rId6"/>
     <sheet name="external" sheetId="8" r:id="rId7"/>
     <sheet name="evaluation" sheetId="7" r:id="rId8"/>
     <sheet name="dataset" sheetId="10" r:id="rId9"/>
@@ -28,8 +29,89 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{73123DD5-A280-D947-AF48-59CB84309764}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+change range to something other than 0-1
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{7C801D78-04D5-814D-8B7A-B810BFC4039C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+'bootstrap': [False], 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>to seperate the grid</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
   <si>
     <t>Imputer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,12 +789,24 @@
 it returns the predictions made on each test fold. Use to generate confusion matrix 
 set method="decision_function" to manully decide the threshold</t>
   </si>
+  <si>
+    <t>.intercept_ .coef_</t>
+  </si>
+  <si>
+    <t>force sparse output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature_range </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bootstrap </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +825,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="MinionPro"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="UbuntuMono"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -765,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -779,6 +906,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,11 +1214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1136,6 +1264,9 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1177,6 +1308,9 @@
       <c r="C10" t="s">
         <v>155</v>
       </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" t="s">
@@ -1192,6 +1326,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1199,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E7EE0F-B21C-4111-A19F-C3DFEA97E806}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="363" workbookViewId="0">
+    <sheetView zoomScale="221" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1385,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BC2810-7363-4822-9846-029AF73DAB5C}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1424,6 +1560,9 @@
       </c>
       <c r="B3" t="s">
         <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1756,11 +1895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5329818A-1901-4EE0-BA78-7F15CAF83F6F}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5329818A-1901-4EE0-BA78-7F15CAF83F6F}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1773,12 +1912,12 @@
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60">
+    <row r="2" spans="1:7" ht="60">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1797,8 +1936,11 @@
       <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1809,6 +1951,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1872,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD8011-8F06-4441-B973-58FC88F978EF}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="175" workbookViewId="0">
+    <sheetView zoomScale="175" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2039,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D33FC2-CBAE-434F-A522-E4FD92444F67}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="172" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/ScikitApi.xlsx
+++ b/ScikitApi.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A8113-AC0B-1C45-80C7-B5740998002A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD66C5B7-6F41-554D-BB52-65523B7C7944}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="485" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="485" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preprocessing" sheetId="1" r:id="rId1"/>
     <sheet name="data_division" sheetId="2" r:id="rId2"/>
     <sheet name="Pipeline" sheetId="3" r:id="rId3"/>
     <sheet name="model" sheetId="6" r:id="rId4"/>
-    <sheet name="tips" sheetId="11" r:id="rId5"/>
-    <sheet name="hyperparameter" sheetId="9" r:id="rId6"/>
-    <sheet name="external" sheetId="8" r:id="rId7"/>
-    <sheet name="evaluation" sheetId="7" r:id="rId8"/>
-    <sheet name="dataset" sheetId="10" r:id="rId9"/>
-    <sheet name="base" sheetId="4" r:id="rId10"/>
-    <sheet name="self" sheetId="5" r:id="rId11"/>
+    <sheet name="dimension Reduction" sheetId="12" r:id="rId5"/>
+    <sheet name="tips" sheetId="11" r:id="rId6"/>
+    <sheet name="hyperparameter" sheetId="9" r:id="rId7"/>
+    <sheet name="external" sheetId="8" r:id="rId8"/>
+    <sheet name="evaluation" sheetId="7" r:id="rId9"/>
+    <sheet name="dataset" sheetId="10" r:id="rId10"/>
+    <sheet name="base" sheetId="4" r:id="rId11"/>
+    <sheet name="self" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -70,6 +71,313 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{76D11AE3-E854-0E44-B670-EC4CEEB18EF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>export_graphviz(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">            tree_clf,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">            out_file=image_path("iris_tree.dot"),</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">            feature_names=iris.feature_names[2:],</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">            class_names=iris.target_names,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">            rounded=True,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">            filled=True</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10.5"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">        )</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{930E76AB-713C-A246-B46A-025E9C0DA0BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">bootstrap=True:bagging (with replacement)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">                 =False:pasting
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">n_jobs the number of parallel cores, set -1 to use all available cores
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">oob_scores=True (use out-of-bag data)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">bootstrap_features=True (use random patches or random subspace methods)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
     <comment ref="G2" authorId="0" shapeId="0" xr:uid="{7C801D78-04D5-814D-8B7A-B810BFC4039C}">
       <text>
         <r>
@@ -111,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
   <si>
     <t>Imputer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,11 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>penalty='l1'means Lasso Regression with alpha =1
-penalty='l2'means add half the square of l2 norm of the weight vector to cost function = Ridge Regression with alpha =1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElasticNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -652,11 +955,6 @@
   </si>
   <si>
     <t>kernel='linear' &lt;=&gt; LinearSVC but much slower for large training sets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loss='hinge',
-alpha=1/(m*C) // apply SGD to train linear SVM classifier. Not coverge as fast as linearSVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -801,12 +1099,126 @@
   <si>
     <t xml:space="preserve">bootstrap </t>
   </si>
+  <si>
+    <t>penalty='l1'means Lasso Regression with alpha =1
+penalty='l2'means add half the square of l2 norm of the weight vector to cost function = Ridge Regression with alpha =1</t>
+  </si>
+  <si>
+    <t>loss='hinge',
+alpha=1/(m*C) // apply SGD to train linear SVM classifier. Not coverge as fast as linearSVC. Suitable for large dataset</t>
+  </si>
+  <si>
+    <t>export_graphviz</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>VotingClassifier</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>estimators=[('m1',m1),...]
+voting='hard'/'soft'</t>
+  </si>
+  <si>
+    <t>BaggingClassifier</t>
+  </si>
+  <si>
+    <t>.oob_score_
+.oob_decision_function_</t>
+  </si>
+  <si>
+    <t>Model()
+n_estimators=500
+max_samples=1.0
+bootstrap=True
+n_jobs=-1
+oob_scores=True
+bootstrap_features=True
+max_features=1.0</t>
+  </si>
+  <si>
+    <t>n_estimators=500, 
+max_leaf_nodes=16,
+n_jobs=-1</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ExtraTreesClassifier</t>
+  </si>
+  <si>
+    <t>ExtraTreesRegressor</t>
+  </si>
+  <si>
+    <t>same to RFC</t>
+  </si>
+  <si>
+    <t>AdaBoostRegressor</t>
+  </si>
+  <si>
+    <t>AdaBoostClassifier</t>
+  </si>
+  <si>
+    <t>subsample=0.25 // Stochastic Gradient Boost
+loss= // use other cost function</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>decomposition</t>
+  </si>
+  <si>
+    <t>n_components=2</t>
+  </si>
+  <si>
+    <t>IncrementalPCA</t>
+  </si>
+  <si>
+    <t>.partial_fit(X_train_splice)</t>
+  </si>
+  <si>
+    <t>svd_solver='randomized'</t>
+  </si>
+  <si>
+    <t>KernelPCA</t>
+  </si>
+  <si>
+    <t>n_compoents=154</t>
+  </si>
+  <si>
+    <t>n_compoents=154,
+kernel='rbf',
+gamma=0.04,</t>
+  </si>
+  <si>
+    <t>fit_inverse_transform=True</t>
+  </si>
+  <si>
+    <t>.inverse_transform()</t>
+  </si>
+  <si>
+    <t>.components_.T[:,0]//the first pc
+.explained_variance_ratio_ // the ratio the lower dimension space can account for the whole variance
+.inverse_transformation() // compression</t>
+  </si>
+  <si>
+    <t>manifold</t>
+  </si>
+  <si>
+    <t>LocallyLinearEmbedding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +1266,27 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1218,7 +1651,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1234,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -1251,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1265,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1284,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1295,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1306,10 +1739,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -1332,6 +1765,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D33FC2-CBAE-434F-A522-E4FD92444F67}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E7EE0F-B21C-4111-A19F-C3DFEA97E806}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1351,7 +1818,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1359,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1384,11 +1851,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CB8ABC-C914-4D08-A857-CC1F5F6D239F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1518,11 +1985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BC2810-7363-4822-9846-029AF73DAB5C}">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BC2810-7363-4822-9846-029AF73DAB5C}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A29" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1530,6 +1997,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="9" max="9" width="92.83203125" bestFit="1" customWidth="1"/>
@@ -1562,7 +2030,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1579,7 +2047,7 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
@@ -1591,7 +2059,7 @@
         <v>72</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45">
@@ -1608,7 +2076,7 @@
         <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30">
@@ -1630,10 +2098,10 @@
         <v>111</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
@@ -1641,13 +2109,13 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1655,7 +2123,7 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>67</v>
@@ -1664,7 +2132,7 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45">
@@ -1672,22 +2140,25 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -1702,18 +2173,21 @@
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1724,148 +2198,309 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9" ht="45">
       <c r="A27" t="s">
         <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>97</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="120">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="C34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="C35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="37" spans="1:9" s="2" customFormat="1">
+      <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+    <row r="40" spans="1:9" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>67</v>
       </c>
       <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1">
+      <c r="A45" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" t="s">
         <v>130</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="48" spans="1:9" ht="60">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
         <v>106</v>
       </c>
-      <c r="I41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="60">
-      <c r="A42" t="s">
+      <c r="I48" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45">
+      <c r="A49" t="s">
         <v>67</v>
       </c>
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D49" t="s">
         <v>106</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="45">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+      <c r="I50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" t="s">
         <v>142</v>
-      </c>
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="60">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I45" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6F0A4D-AB85-4244-9AD6-74809FC15FC1}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="94.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91BBE37-57C3-4B9A-9D4C-AA29B23C6EA8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1894,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5329818A-1901-4EE0-BA78-7F15CAF83F6F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1937,7 +2572,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1955,7 +2590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6776558D-BE18-41E9-9CCB-2BBEBF0717CC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1988,21 +2623,21 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
       <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD8011-8F06-4441-B973-58FC88F978EF}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2155,10 +2790,10 @@
         <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2176,38 +2811,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D33FC2-CBAE-434F-A522-E4FD92444F67}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>